--- a/docs/oblig5-charts.xlsx
+++ b/docs/oblig5-charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-5\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA669A-6F23-4EF8-847B-88A61BFA5DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B88C4-00BE-40F8-8F68-42A6A03B147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24946" windowHeight="16096" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,24 +234,27 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,15 +294,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Paralell</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -315,48 +310,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$6</c:f>
+              <c:f>Sheet1!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.215</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0739999999999998</c:v>
+                  <c:v>0.46800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4990000000000001</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1050000000000004</c:v>
+                  <c:v>1.764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9450000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,7 +542,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1263,15 +1274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97631</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>454818</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1598,22 +1609,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76534C-1665-44F1-8873-2DAF09542237}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.265625" customWidth="1"/>
-    <col min="19" max="19" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.3984375" customWidth="1"/>
-    <col min="29" max="29" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.65" thickBot="1">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1638,19 +1649,19 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
     </row>
-    <row r="2" spans="1:31" ht="14.65" thickBot="1">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="Q2" s="9">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="R2" s="9">
         <v>1</v>
       </c>
       <c r="S2" s="9">
-        <v>3.7999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="T2" s="9"/>
       <c r="AB2" s="9"/>
@@ -1658,19 +1669,19 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:31" ht="14.65" thickBot="1">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="Q3" s="9">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>0.215</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="T3" s="9"/>
       <c r="AB3" s="9"/>
@@ -1678,19 +1689,19 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" ht="14.65" thickBot="1">
+    <row r="4" spans="1:31" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="Q4" s="9">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="R4" s="9">
         <v>1</v>
       </c>
       <c r="S4" s="9">
-        <v>3.0739999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="T4" s="9"/>
       <c r="AB4" s="9"/>
@@ -1698,19 +1709,19 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="14.65" thickBot="1">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="Q5" s="9">
-        <v>10000000</v>
+        <v>100000</v>
       </c>
       <c r="R5" s="9">
         <v>1</v>
       </c>
       <c r="S5" s="9">
-        <v>3.4990000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="T5" s="9"/>
       <c r="AB5" s="9"/>
@@ -1718,27 +1729,37 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" ht="14.65" thickBot="1">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="Q6" s="9">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="R6" s="9">
         <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>5.1050000000000004</v>
+        <v>1.764</v>
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="Q7" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="4"/>

--- a/docs/oblig5-charts.xlsx
+++ b/docs/oblig5-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-5\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B88C4-00BE-40F8-8F68-42A6A03B147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088C5110-BBD8-44AA-9D8D-6CF38F686CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
+    <workbookView xWindow="2985" yWindow="1845" windowWidth="22590" windowHeight="12630" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,10 +261,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -278,6 +278,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1609,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76534C-1665-44F1-8873-2DAF09542237}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
